--- a/Lab06-EXCEL/WSI_Lab06_Charts_TasksV2.xlsx
+++ b/Lab06-EXCEL/WSI_Lab06_Charts_TasksV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSI\Lab06-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C881A9-2208-410E-A1F4-C045877AF9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A7D5A-0F82-4785-94DC-EFE6D73685D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{4122B089-3A86-5940-A45E-54E4F5FEB21F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{4122B089-3A86-5940-A45E-54E4F5FEB21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 - Column chart" sheetId="1" r:id="rId1"/>
@@ -10998,10 +10998,10 @@
       <sheetName val="Task 5-Surface"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="I3">
@@ -12796,7 +12796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A0BFCB-E36C-7A42-BDAA-7F0D1192AC77}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -13038,7 +13038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAB3F4F-AA38-F04C-BE71-E0CA668F0418}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -14640,8 +14640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0D2680-CA32-4176-95A0-D9E0B8BB7AB2}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
@@ -15720,15 +15720,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DE63D1-0CE1-4FA8-8600-34066FB160F8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8ff92392-223e-4d27-942d-0d0df19402a3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8ff92392-223e-4d27-942d-0d0df19402a3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
